--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,9 @@
     <t>tr_TR</t>
   </si>
   <si>
+    <t>hi_IN</t>
+  </si>
+  <si>
     <t>12/02/2019</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>14-02-2019</t>
+  </si>
+  <si>
+    <t>16-02-2019</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -421,7 +427,7 @@
     <col bestFit="1" customWidth="1" max="1" min="1" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +479,11 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="n">
         <v>43505</v>
       </c>
@@ -526,8 +535,11 @@
       <c r="Q2" t="n">
         <v>2</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="n">
         <v>43507</v>
       </c>
@@ -579,10 +591,13 @@
       <c r="Q3" t="n">
         <v>2</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -632,10 +647,13 @@
       <c r="Q4" t="n">
         <v>2</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -685,10 +703,13 @@
       <c r="Q5" t="n">
         <v>2</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -737,6 +758,65 @@
       </c>
       <c r="Q6" t="n">
         <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>253</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>16-02-2019</t>
+  </si>
+  <si>
+    <t>19-02-2019</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -819,6 +822,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>253</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" t="n">
+        <v>31</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>19-02-2019</t>
+  </si>
+  <si>
+    <t>23-02-2019</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -878,6 +881,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>253</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>23-02-2019</t>
+  </si>
+  <si>
+    <t>24-02-2019</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -937,6 +940,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>253</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>24-02-2019</t>
+  </si>
+  <si>
+    <t>25-02-2019</t>
+  </si>
+  <si>
+    <t>03-03-2019</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -996,6 +1002,118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>253</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17</v>
+      </c>
+      <c r="G11" t="n">
+        <v>31</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>252</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>6/3/2019</t>
+  </si>
+  <si>
+    <t>3/11/2019</t>
+  </si>
+  <si>
+    <t>11/3/19</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1247,6 +1253,124 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>251</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17</v>
+      </c>
+      <c r="G15" t="n">
+        <v>32</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>251</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>32</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>11/3/19</t>
+  </si>
+  <si>
+    <t>12/3/19</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1371,6 +1374,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>251</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>12/3/19</t>
+  </si>
+  <si>
+    <t>13/03/2019</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1433,6 +1436,124 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>250</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17</v>
+      </c>
+      <c r="G18" t="n">
+        <v>33</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>250</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17</v>
+      </c>
+      <c r="G19" t="n">
+        <v>33</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>13/03/2019</t>
+  </si>
+  <si>
+    <t>16/03/2019</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -1554,6 +1557,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>250</v>
+      </c>
+      <c r="F20" t="n">
+        <v>17</v>
+      </c>
+      <c r="G20" t="n">
+        <v>33</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -124,26 +124,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2273,6 +2265,65 @@
         <v>0</v>
       </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>251</v>
+      </c>
+      <c r="F32">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>32</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>4</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>12</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2324,6 +2324,65 @@
         <v>0</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="1">
+        <v>43543</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>251</v>
+      </c>
+      <c r="F33">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2383,6 +2383,65 @@
         <v>0</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>251</v>
+      </c>
+      <c r="F34">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>12</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2442,6 +2442,65 @@
         <v>0</v>
       </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="1">
+        <v>43548</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>252</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>32</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2501,6 +2501,65 @@
         <v>0</v>
       </c>
       <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="1">
+        <v>43549</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>252</v>
+      </c>
+      <c r="F36">
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <v>32</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>12</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2560,6 +2560,65 @@
         <v>0</v>
       </c>
       <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="1">
+        <v>43550</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>252</v>
+      </c>
+      <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>32</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>4</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>12</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2619,6 +2619,65 @@
         <v>0</v>
       </c>
       <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>256</v>
+      </c>
+      <c r="F38">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>12</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="1">
-        <v>43556</v>
+        <v>43554</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -2678,6 +2678,183 @@
         <v>0</v>
       </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>256</v>
+      </c>
+      <c r="F39">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>4</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>12</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="1">
+        <v>43557</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>302</v>
+      </c>
+      <c r="F40">
+        <v>16</v>
+      </c>
+      <c r="G40">
+        <v>32</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>12</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="1">
+        <v>43558</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>346</v>
+      </c>
+      <c r="F41">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>34</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>12</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="32120" windowHeight="14980"/>
   </bookViews>
@@ -145,11 +140,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,18 +428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>43505</v>
       </c>
@@ -567,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>43507</v>
       </c>
@@ -626,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>43508</v>
       </c>
@@ -685,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>43509</v>
       </c>
@@ -744,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>43510</v>
       </c>
@@ -803,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>43512</v>
       </c>
@@ -862,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>43515</v>
       </c>
@@ -921,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>43519</v>
       </c>
@@ -980,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>43520</v>
       </c>
@@ -1039,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>43521</v>
       </c>
@@ -1098,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>43522</v>
       </c>
@@ -1157,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>43523</v>
       </c>
@@ -1216,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>43524</v>
       </c>
@@ -1275,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>43525</v>
       </c>
@@ -1334,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>43526</v>
       </c>
@@ -1393,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>43527</v>
       </c>
@@ -1452,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>43528</v>
       </c>
@@ -1511,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>43529</v>
       </c>
@@ -1570,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>43530</v>
       </c>
@@ -1629,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>43531</v>
       </c>
@@ -1688,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>43532</v>
       </c>
@@ -1747,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>43533</v>
       </c>
@@ -1806,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>43534</v>
       </c>
@@ -1865,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>43535</v>
       </c>
@@ -1924,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>43536</v>
       </c>
@@ -1983,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>43537</v>
       </c>
@@ -2042,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>43538</v>
       </c>
@@ -2101,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>43539</v>
       </c>
@@ -2160,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>43540</v>
       </c>
@@ -2219,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>43541</v>
       </c>
@@ -2278,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>43542</v>
       </c>
@@ -2337,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>43543</v>
       </c>
@@ -2396,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>43544</v>
       </c>
@@ -2455,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>43548</v>
       </c>
@@ -2514,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>43549</v>
       </c>
@@ -2573,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>43550</v>
       </c>
@@ -2632,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>43554</v>
       </c>
@@ -2691,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>43556</v>
       </c>
@@ -2750,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>43557</v>
       </c>
@@ -2809,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>43558</v>
       </c>
@@ -2868,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>43559</v>
       </c>
@@ -2927,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>43560</v>
       </c>
@@ -2983,11 +2973,75 @@
         <v>0</v>
       </c>
       <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="1">
+        <v>43561</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>375</v>
+      </c>
+      <c r="F44">
+        <v>16</v>
+      </c>
+      <c r="G44">
+        <v>34</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>12</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgosandreou/Documents/Visual Studio/thesis-old/excels/lite/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="32120" windowHeight="14980"/>
   </bookViews>
@@ -140,6 +145,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -428,18 +438,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +508,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43505</v>
       </c>
@@ -557,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43507</v>
       </c>
@@ -616,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43508</v>
       </c>
@@ -675,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43509</v>
       </c>
@@ -734,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43510</v>
       </c>
@@ -793,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43512</v>
       </c>
@@ -852,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43515</v>
       </c>
@@ -911,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43519</v>
       </c>
@@ -970,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43520</v>
       </c>
@@ -1029,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43521</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43522</v>
       </c>
@@ -1147,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43523</v>
       </c>
@@ -1206,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43524</v>
       </c>
@@ -1265,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43525</v>
       </c>
@@ -1324,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43526</v>
       </c>
@@ -1383,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43527</v>
       </c>
@@ -1442,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43528</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43529</v>
       </c>
@@ -1560,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43530</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43531</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43532</v>
       </c>
@@ -1737,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43533</v>
       </c>
@@ -1796,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43534</v>
       </c>
@@ -1855,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43535</v>
       </c>
@@ -1914,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43536</v>
       </c>
@@ -1973,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43537</v>
       </c>
@@ -2032,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43538</v>
       </c>
@@ -2091,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43539</v>
       </c>
@@ -2150,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43540</v>
       </c>
@@ -2209,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43541</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43542</v>
       </c>
@@ -2327,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43543</v>
       </c>
@@ -2386,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43544</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43548</v>
       </c>
@@ -2504,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43549</v>
       </c>
@@ -2563,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43550</v>
       </c>
@@ -2622,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43554</v>
       </c>
@@ -2681,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43556</v>
       </c>
@@ -2740,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43557</v>
       </c>
@@ -2799,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43558</v>
       </c>
@@ -2858,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43559</v>
       </c>
@@ -2917,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43560</v>
       </c>
@@ -2976,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43561</v>
       </c>
@@ -3032,16 +3042,129 @@
         <v>0</v>
       </c>
       <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43562</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>377</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>34</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>12</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>377</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>34</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>4</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>12</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3163,6 +3163,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43564</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>376</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>34</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>12</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3222,6 +3222,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43565</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>376</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>34</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>12</v>
+      </c>
+      <c r="Q48">
+        <v>2</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3281,6 +3281,183 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43566</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>376</v>
+      </c>
+      <c r="F49">
+        <v>16</v>
+      </c>
+      <c r="G49">
+        <v>34</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43567</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>376</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>34</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>12</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43568</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>381</v>
+      </c>
+      <c r="F51">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>34</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>13</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+      <selection activeCell="B52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3458,6 +3458,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43569</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>381</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>34</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>13</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B52" sqref="A52:XFD52"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3517,6 +3517,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>381</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>34</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>4</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>13</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3576,6 +3576,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43571</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>381</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>34</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>13</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3635,6 +3635,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43572</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>381</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>34</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>13</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="32120" windowHeight="14980"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3694,6 +3694,242 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43573</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>381</v>
+      </c>
+      <c r="F56">
+        <v>16</v>
+      </c>
+      <c r="G56">
+        <v>34</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>13</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43574</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>381</v>
+      </c>
+      <c r="F57">
+        <v>16</v>
+      </c>
+      <c r="G57">
+        <v>34</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>13</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43575</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>408</v>
+      </c>
+      <c r="F58">
+        <v>17</v>
+      </c>
+      <c r="G58">
+        <v>34</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>13</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>427</v>
+      </c>
+      <c r="F59">
+        <v>16</v>
+      </c>
+      <c r="G59">
+        <v>35</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>13</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3930,6 +3930,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>445</v>
+      </c>
+      <c r="F60">
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <v>35</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>13</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3989,6 +3989,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43578</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>459</v>
+      </c>
+      <c r="F61">
+        <v>17</v>
+      </c>
+      <c r="G61">
+        <v>35</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>5</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>13</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4048,6 +4048,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43579</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>465</v>
+      </c>
+      <c r="F62">
+        <v>17</v>
+      </c>
+      <c r="G62">
+        <v>35</v>
+      </c>
+      <c r="H62">
+        <v>3</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>13</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,15 +438,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -4104,6 +4104,183 @@
         <v>0</v>
       </c>
       <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43580</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>480</v>
+      </c>
+      <c r="F63">
+        <v>17</v>
+      </c>
+      <c r="G63">
+        <v>35</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>13</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43581</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>488</v>
+      </c>
+      <c r="F64">
+        <v>18</v>
+      </c>
+      <c r="G64">
+        <v>36</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>13</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43582</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>494</v>
+      </c>
+      <c r="F65">
+        <v>19</v>
+      </c>
+      <c r="G65">
+        <v>37</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>13</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
         <v>0</v>
       </c>
     </row>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4284,6 +4284,124 @@
         <v>0</v>
       </c>
     </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43583</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>498</v>
+      </c>
+      <c r="F66">
+        <v>19</v>
+      </c>
+      <c r="G66">
+        <v>37</v>
+      </c>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>4</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>13</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>502</v>
+      </c>
+      <c r="F67">
+        <v>19</v>
+      </c>
+      <c r="G67">
+        <v>36</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+      <c r="M67">
+        <v>4</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>13</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excels/lite/lite-Locale.xlsx
+++ b/excels/lite/lite-Locale.xlsx
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4402,6 +4402,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>517</v>
+      </c>
+      <c r="F68">
+        <v>19</v>
+      </c>
+      <c r="G68">
+        <v>36</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>13</v>
+      </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
